--- a/output.xlsx
+++ b/output.xlsx
@@ -1,61 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\GitHub\fph_lin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F800A8D-95C0-4839-BCB0-B205B4599C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="1275" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Array1" sheetId="1" r:id="rId1"/>
-    <sheet name="Array2" sheetId="2" r:id="rId2"/>
-    <sheet name="Array3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Array1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Array2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Array3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -70,50 +48,100 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +179,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -185,7 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,10 +247,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -396,352 +422,610 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8.2399652620258786E-3</v>
-      </c>
-      <c r="B2">
-        <v>0.33361025015200158</v>
-      </c>
-      <c r="C2">
-        <v>2.4991507095085161E-3</v>
-      </c>
-      <c r="D2">
-        <v>1.6840668018341259E-3</v>
-      </c>
-      <c r="E2">
-        <v>9.2057658022633344E-4</v>
-      </c>
-      <c r="F2">
-        <v>5.799829378503713E-4</v>
-      </c>
-      <c r="G2">
-        <v>1.4458338714341311E-4</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6.701015952845918</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05976510500344167</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.70535847442939</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.746972851985694</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.05281056516079872</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9618822087801367</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5351387054395231</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.761461563148831</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1043249489336629</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.75489316821801</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.753910466849386</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1070129410144003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9417873448490612</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5205901639654523</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.812972346138195</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1585280016936322</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.80094156317011</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.801314925590431</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1574954602419743</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9717375696936926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.567175076665222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.749131175630305</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.09417770001624005</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.736349095954861</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.737185519552596</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.09311313363646789</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9378497581209367</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5178679684347455</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.794079484091399</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1321859444802649</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.676523465306001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.709768673677488</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0446856132661461</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9361369899701963</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5167294713146467</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.762143521362827</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.09995235493175246</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.739246405476787</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.744044405453633</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.09898128923648182</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9351305142948418</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5160344235778993</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6.762220231564315</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1092825287470807</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.743453749453326</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.744872596824866</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.117905878560889</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9338144566382361</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5159643050226095</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>22</v>
+      </c>
+      <c r="G5" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G6" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="B7" t="n">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
         <v>18</v>
       </c>
-      <c r="G2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>A2/2</f>
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ref="B11:G11" si="0">B2/2</f>
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>19</v>
+      <c r="E7" t="n">
+        <v>22</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G7" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28</v>
+      </c>
+      <c r="E8" t="n">
+        <v>32</v>
+      </c>
+      <c r="F8" t="n">
+        <v>36</v>
+      </c>
+      <c r="G8" t="n">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>7.6706597148148712E-3</v>
-      </c>
-      <c r="B2">
-        <v>1.018010246932472E-2</v>
-      </c>
-      <c r="C2">
-        <v>1.1510474161921309E-2</v>
-      </c>
-      <c r="D2">
-        <v>1.233135130934189E-2</v>
-      </c>
-      <c r="E2">
-        <v>1.329033542722036E-2</v>
-      </c>
-      <c r="F2">
-        <v>1.3831274767974799E-2</v>
-      </c>
-      <c r="G2">
-        <v>1.4846236532027161E-2</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6.710184100682408</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.06961838564871109</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.715238611073844</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.756868332162636</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.06271773240516208</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9717944041358867</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5450569658139276</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.772974160020985</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1135342731756624</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.764095130016737</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.762893651567033</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.115697301264197</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9502372531419336</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5287655631796423</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.824580284823757</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1678199514820014</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.809500957231733</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.809876799410209</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1656925485315227</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.979714165871797</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5747493915128216</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.76077706033371</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1032860478080366</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.744908427486859</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.745230134097213</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1009591480959677</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.94545307744556</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5250146833719509</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.805754309341438</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1410013950793458</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.684743233655946</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.717610173715089</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.05194025875648051</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9432438128472571</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5233213769308658</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.77382900399837</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1085510822792537</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.747251151663479</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.751645144745444</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1060844912747672</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9418632986899412</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5223079708140828</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6.773917899494277</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1176068861459434</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.751052210274201</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.7520100406992</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1244891536354657</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9400802448964789</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5216236913786635</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -1,39 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Array1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Array2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Array3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Array1" sheetId="1" r:id="rId1"/>
+    <sheet name="Array2" sheetId="2" r:id="rId2"/>
+    <sheet name="Array3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,93 +51,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -422,610 +367,592 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7">
+      <c r="A2">
         <v>6.701015952845918</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.05976510500344167</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.70535847442939</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1.746972851985694</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.05281056516079872</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.9618822087801367</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.5351387054395231</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3">
         <v>6.761461563148831</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.1043249489336629</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.75489316821801</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1.753910466849386</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.1070129410144003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.9417873448490612</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.5205901639654523</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4">
         <v>6.812972346138195</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.1585280016936322</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.80094156317011</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.801314925590431</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.1574954602419743</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.9717375696936926</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.567175076665222</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>6.749131175630305</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.09417770001624005</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.736349095954861</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1.737185519552596</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.09311313363646789</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.9378497581209367</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.5178679684347455</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6">
         <v>6.794079484091399</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.1321859444802649</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.676523465306001</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1.709768673677488</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.0446856132661461</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.9361369899701963</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.5167294713146467</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>6.762143521362827</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.09995235493175246</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.739246405476787</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1.744044405453633</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.09898128923648182</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.9351305142948418</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.5160344235778993</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>6.762220231564315</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.1092825287470807</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.743453749453326</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1.744872596824866</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.117905878560889</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.9338144566382361</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.5159643050226095</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>14</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>18</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>38</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>12</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>16</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>40</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>9</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>17</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>21</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>41</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>14</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>18</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>22</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>42</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>12</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>16</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>24</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>44</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>10</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>14</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>18</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>22</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>26</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>46</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>20</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>24</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>26</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>28</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>32</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>36</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>56</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>6.710184100682408</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.06961838564871109</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.715238611073844</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.756868332162636</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.06271773240516208</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9717944041358867</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.5450569658139276</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6.772974160020985</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1135342731756624</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.764095130016737</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.762893651567033</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.115697301264197</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9502372531419336</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.5287655631796423</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6.824580284823757</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1678199514820014</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.809500957231733</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.809876799410209</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1656925485315227</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.979714165871797</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.5747493915128216</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6.76077706033371</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1032860478080366</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.744908427486859</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.745230134097213</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1009591480959677</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.94545307744556</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.5250146833719509</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6.805754309341438</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1410013950793458</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.684743233655946</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.717610173715089</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.05194025875648051</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9432438128472571</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5233213769308658</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.77382900399837</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1085510822792537</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.747251151663479</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.751645144745444</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1060844912747672</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9418632986899412</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5223079708140828</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6.773917899494277</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1176068861459434</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.751052210274201</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.7520100406992</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1244891536354657</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9400802448964789</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.5216236913786635</v>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>6.843871438273569</v>
+      </c>
+      <c r="B2">
+        <v>0.2042520036097153</v>
+      </c>
+      <c r="C2">
+        <v>1.849921658015214</v>
+      </c>
+      <c r="D2">
+        <v>1.891577545406744</v>
+      </c>
+      <c r="E2">
+        <v>0.1974491397181647</v>
+      </c>
+      <c r="F2">
+        <v>1.106535363743438</v>
+      </c>
+      <c r="G2">
+        <v>0.6798097787390288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>6.909414841090491</v>
+      </c>
+      <c r="B3">
+        <v>0.2469547600557891</v>
+      </c>
+      <c r="C3">
+        <v>1.897506912515264</v>
+      </c>
+      <c r="D3">
+        <v>1.896067159069486</v>
+      </c>
+      <c r="E3">
+        <v>0.2485508078779566</v>
+      </c>
+      <c r="F3">
+        <v>1.082844285652807</v>
+      </c>
+      <c r="G3">
+        <v>0.6610882149930987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>6.961169624585064</v>
+      </c>
+      <c r="B4">
+        <v>0.3013021814216994</v>
+      </c>
+      <c r="C4">
+        <v>1.942194351453142</v>
+      </c>
+      <c r="D4">
+        <v>1.942572267051411</v>
+      </c>
+      <c r="E4">
+        <v>0.2980085453652284</v>
+      </c>
+      <c r="F4">
+        <v>1.111804269320552</v>
+      </c>
+      <c r="G4">
+        <v>0.7064357349186199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>6.897430910140433</v>
+      </c>
+      <c r="B5">
+        <v>0.2365537115780984</v>
+      </c>
+      <c r="C5">
+        <v>1.877588714035519</v>
+      </c>
+      <c r="D5">
+        <v>1.877377458274718</v>
+      </c>
+      <c r="E5">
+        <v>0.232905011024443</v>
+      </c>
+      <c r="F5">
+        <v>1.077155949926491</v>
+      </c>
+      <c r="G5">
+        <v>0.6562711538930761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>6.942461533049471</v>
+      </c>
+      <c r="B6">
+        <v>0.2739450760246907</v>
+      </c>
+      <c r="C6">
+        <v>1.817062448332388</v>
+      </c>
+      <c r="D6">
+        <v>1.849544687933435</v>
+      </c>
+      <c r="E6">
+        <v>0.1832950339965521</v>
+      </c>
+      <c r="F6">
+        <v>1.074455706228564</v>
+      </c>
+      <c r="G6">
+        <v>0.6540440112138874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6.910557376518962</v>
+      </c>
+      <c r="B7">
+        <v>0.2412636984755694</v>
+      </c>
+      <c r="C7">
+        <v>1.879349495641538</v>
+      </c>
+      <c r="D7">
+        <v>1.88333838737901</v>
+      </c>
+      <c r="E7">
+        <v>0.2372917990094666</v>
+      </c>
+      <c r="F7">
+        <v>1.072718202994061</v>
+      </c>
+      <c r="G7">
+        <v>0.6527240953676443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6.910671248652674</v>
+      </c>
+      <c r="B8">
+        <v>0.2500313774629085</v>
+      </c>
+      <c r="C8">
+        <v>1.882741767670633</v>
+      </c>
+      <c r="D8">
+        <v>1.883248616850335</v>
+      </c>
+      <c r="E8">
+        <v>0.2551974000651862</v>
+      </c>
+      <c r="F8">
+        <v>1.070483224376828</v>
+      </c>
+      <c r="G8">
+        <v>0.6514269527762002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -368,13 +368,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -396,46 +396,28 @@
       <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.6262263671723834</v>
+        <v>0.8323197234369488</v>
       </c>
       <c r="B2">
-        <v>0.1055974223620516</v>
+        <v>0.416711150042325</v>
       </c>
       <c r="C2">
-        <v>0.06437513683883245</v>
+        <v>0.2524394656069214</v>
       </c>
       <c r="D2">
-        <v>0.04355418793728373</v>
+        <v>0.1701077577610258</v>
       </c>
       <c r="E2">
-        <v>0.02392359993537095</v>
+        <v>0.09298753335619553</v>
       </c>
       <c r="F2">
-        <v>0.01511719008252637</v>
+        <v>0.05858413513640564</v>
       </c>
       <c r="G2">
-        <v>0.00378669851214676</v>
-      </c>
-      <c r="H2">
-        <v>0.00168425721238563</v>
-      </c>
-      <c r="I2">
-        <v>0.000939597872427941</v>
-      </c>
-      <c r="J2">
-        <v>0.0005391999052582521</v>
+        <v>0.01460438253973948</v>
       </c>
     </row>
   </sheetData>
@@ -445,13 +427,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -473,49 +455,31 @@
       <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>51</v>
-      </c>
-      <c r="C2">
-        <v>73</v>
-      </c>
       <c r="D2">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>319</v>
-      </c>
-      <c r="H2">
-        <v>517</v>
-      </c>
-      <c r="I2">
-        <v>675</v>
-      </c>
-      <c r="J2">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0</v>
       </c>
@@ -537,17 +501,8 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0</v>
       </c>
@@ -569,17 +524,8 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0</v>
       </c>
@@ -601,17 +547,8 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0</v>
       </c>
@@ -633,17 +570,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0</v>
       </c>
@@ -665,17 +593,8 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0</v>
       </c>
@@ -695,111 +614,6 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
         <v>0</v>
       </c>
     </row>
@@ -810,13 +624,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -838,46 +652,28 @@
       <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>13.73460899448506</v>
+        <v>2.158107842655534</v>
       </c>
       <c r="B2">
-        <v>14.21749380665646</v>
+        <v>2.013967076766961</v>
       </c>
       <c r="C2">
-        <v>14.2556757006075</v>
+        <v>1.996931648541127</v>
       </c>
       <c r="D2">
-        <v>14.27493859020197</v>
+        <v>2.005982234620252</v>
       </c>
       <c r="E2">
-        <v>14.29308210669246</v>
+        <v>2.036638044140569</v>
       </c>
       <c r="F2">
-        <v>14.30121441400667</v>
+        <v>2.063028454341265</v>
       </c>
       <c r="G2">
-        <v>14.31166612811968</v>
-      </c>
-      <c r="H2">
-        <v>14.31360352260631</v>
-      </c>
-      <c r="I2">
-        <v>14.31428941093821</v>
-      </c>
-      <c r="J2">
-        <v>14.31465770836894</v>
+        <v>2.134221530516339</v>
       </c>
     </row>
   </sheetData>
